--- a/现金流量表/300923.xlsx
+++ b/现金流量表/300923.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -744,56 +744,56 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>27700941.21</v>
+        <v>12057983.8</v>
       </c>
       <c r="P2" t="n">
-        <v>241.1534221946</v>
+        <v>201.9002445217</v>
       </c>
       <c r="Q2" t="n">
-        <v>206490364.59</v>
+        <v>342123296.47</v>
       </c>
       <c r="R2" t="n">
-        <v>1797.6233259943</v>
+        <v>5728.5511707062</v>
       </c>
       <c r="S2" t="n">
-        <v>44911247.26</v>
+        <v>78011938.23999999</v>
       </c>
       <c r="T2" t="n">
-        <v>390.9795298893</v>
+        <v>1306.2407171474</v>
       </c>
       <c r="U2" t="n">
-        <v>-9712795.08</v>
+        <v>-18430283.89</v>
       </c>
       <c r="V2" t="n">
-        <v>-84.55574685569999</v>
+        <v>-308.5987579445</v>
       </c>
       <c r="W2" t="n">
-        <v>298816.02</v>
+        <v>3545588.43</v>
       </c>
       <c r="X2" t="n">
-        <v>2.601373913</v>
+        <v>59.3677336828</v>
       </c>
       <c r="Y2" t="n">
-        <v>3024071.28</v>
+        <v>12977896.32</v>
       </c>
       <c r="Z2" t="n">
-        <v>26.3263667687</v>
+        <v>217.3033637999</v>
       </c>
       <c r="AA2" t="n">
-        <v>-29475000</v>
+        <v>12344548.33</v>
       </c>
       <c r="AB2" t="n">
-        <v>-256.5976753389</v>
+        <v>206.6985134228</v>
       </c>
       <c r="AC2" t="n">
-        <v>-11486853.87</v>
+        <v>5972248.24</v>
       </c>
       <c r="AD2" t="n">
-        <v>46.5798962312</v>
+        <v>-40.4451962938</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>

--- a/现金流量表/300923.xlsx
+++ b/现金流量表/300923.xlsx
@@ -724,14 +724,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -744,56 +744,56 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>12057983.8</v>
+        <v>27700941.21</v>
       </c>
       <c r="P2" t="n">
-        <v>201.9002445217</v>
+        <v>241.1534221946</v>
       </c>
       <c r="Q2" t="n">
-        <v>342123296.47</v>
+        <v>206490364.59</v>
       </c>
       <c r="R2" t="n">
-        <v>5728.5511707062</v>
+        <v>1797.6233259943</v>
       </c>
       <c r="S2" t="n">
-        <v>78011938.23999999</v>
+        <v>44911247.26</v>
       </c>
       <c r="T2" t="n">
-        <v>1306.2407171474</v>
+        <v>390.9795298893</v>
       </c>
       <c r="U2" t="n">
-        <v>-18430283.89</v>
+        <v>-9712795.08</v>
       </c>
       <c r="V2" t="n">
-        <v>-308.5987579445</v>
+        <v>-84.55574685569999</v>
       </c>
       <c r="W2" t="n">
-        <v>3545588.43</v>
+        <v>298816.02</v>
       </c>
       <c r="X2" t="n">
-        <v>59.3677336828</v>
+        <v>2.601373913</v>
       </c>
       <c r="Y2" t="n">
-        <v>12977896.32</v>
+        <v>3024071.28</v>
       </c>
       <c r="Z2" t="n">
-        <v>217.3033637999</v>
+        <v>26.3263667687</v>
       </c>
       <c r="AA2" t="n">
-        <v>12344548.33</v>
+        <v>-29475000</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.6985134228</v>
+        <v>-256.5976753389</v>
       </c>
       <c r="AC2" t="n">
-        <v>5972248.24</v>
+        <v>-11486853.87</v>
       </c>
       <c r="AD2" t="n">
-        <v>-40.4451962938</v>
+        <v>46.5798962312</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
